--- a/Module1/Module1_DuongTranBaoLong/Check List CaseStudy C0220H1.xlsx
+++ b/Module1/Module1_DuongTranBaoLong/Check List CaseStudy C0220H1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\Codegym\Module1\Module1_DuongTranBaoLong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="C0220H1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miM9msnvg08gKsDS4jO/3+jcqCkMQ=="/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="27">
   <si>
     <t>Module</t>
   </si>
@@ -436,32 +436,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,11 +463,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J869"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,50 +713,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="72" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="65"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="63"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69">
+      <c r="A3" s="61">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3">
@@ -1005,7 +1005,7 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="3">
         <v>43914</v>
       </c>
@@ -1025,10 +1025,10 @@
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="A16" s="68">
         <v>2</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="69" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="21">
@@ -1278,7 +1278,7 @@
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="21">
         <v>43914</v>
       </c>
@@ -1298,10 +1298,10 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69">
+      <c r="A29" s="61">
         <v>3</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="3">
@@ -1550,7 +1550,7 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="3">
         <v>43914</v>
       </c>
@@ -1570,10 +1570,10 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73">
+      <c r="A42" s="63">
         <v>4</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="21">
@@ -1633,7 +1633,9 @@
         <v>10</v>
       </c>
       <c r="G44" s="37"/>
-      <c r="H44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="I44" s="7"/>
       <c r="J44" s="9"/>
     </row>
@@ -1653,7 +1655,9 @@
         <v>1</v>
       </c>
       <c r="G45" s="37"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="I45" s="7"/>
       <c r="J45" s="9"/>
     </row>
@@ -1674,7 +1678,9 @@
         <v>2</v>
       </c>
       <c r="G46" s="37"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="I46" s="7"/>
       <c r="J46" s="9"/>
     </row>
@@ -1827,7 +1833,7 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="62"/>
-      <c r="B54" s="63"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="21">
         <v>43914</v>
       </c>
@@ -1847,10 +1853,10 @@
       <c r="J54" s="15"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="69">
+      <c r="A55" s="61">
         <v>5</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="3">
@@ -2099,7 +2105,7 @@
     </row>
     <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="62"/>
-      <c r="B67" s="63"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="3">
         <v>43914</v>
       </c>
@@ -2119,10 +2125,10 @@
       <c r="J67" s="15"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="73">
+      <c r="A68" s="63">
         <v>6</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="B68" s="66" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="21">
@@ -2372,7 +2378,7 @@
     </row>
     <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="62"/>
-      <c r="B80" s="63"/>
+      <c r="B80" s="64"/>
       <c r="C80" s="21">
         <v>43914</v>
       </c>
@@ -2392,10 +2398,10 @@
       <c r="J80" s="15"/>
     </row>
     <row r="81" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="69">
+      <c r="A81" s="61">
         <v>7</v>
       </c>
-      <c r="B81" s="64" t="s">
+      <c r="B81" s="65" t="s">
         <v>18</v>
       </c>
       <c r="C81" s="3">
@@ -2644,7 +2650,7 @@
     </row>
     <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="62"/>
-      <c r="B93" s="63"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="3">
         <v>43914</v>
       </c>
@@ -2664,10 +2670,10 @@
       <c r="J93" s="15"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="73">
+      <c r="A94" s="63">
         <v>8</v>
       </c>
-      <c r="B94" s="61" t="s">
+      <c r="B94" s="66" t="s">
         <v>19</v>
       </c>
       <c r="C94" s="21">
@@ -2917,7 +2923,7 @@
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="62"/>
-      <c r="B106" s="63"/>
+      <c r="B106" s="64"/>
       <c r="C106" s="21">
         <v>43914</v>
       </c>
@@ -2937,10 +2943,10 @@
       <c r="J106" s="9"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="69">
+      <c r="A107" s="61">
         <v>9</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="65" t="s">
         <v>20</v>
       </c>
       <c r="C107" s="3">
@@ -3189,7 +3195,7 @@
     </row>
     <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="62"/>
-      <c r="B119" s="63"/>
+      <c r="B119" s="64"/>
       <c r="C119" s="3">
         <v>43914</v>
       </c>
@@ -3209,10 +3215,10 @@
       <c r="J119" s="15"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="73">
+      <c r="A120" s="63">
         <v>10</v>
       </c>
-      <c r="B120" s="61" t="s">
+      <c r="B120" s="66" t="s">
         <v>21</v>
       </c>
       <c r="C120" s="21">
@@ -3462,7 +3468,7 @@
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="62"/>
-      <c r="B132" s="63"/>
+      <c r="B132" s="64"/>
       <c r="C132" s="21">
         <v>43914</v>
       </c>
@@ -3482,10 +3488,10 @@
       <c r="J132" s="15"/>
     </row>
     <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="69">
+      <c r="A133" s="61">
         <v>11</v>
       </c>
-      <c r="B133" s="64" t="s">
+      <c r="B133" s="65" t="s">
         <v>22</v>
       </c>
       <c r="C133" s="3">
@@ -3734,7 +3740,7 @@
     </row>
     <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="62"/>
-      <c r="B145" s="63"/>
+      <c r="B145" s="64"/>
       <c r="C145" s="3">
         <v>43914</v>
       </c>
@@ -3754,10 +3760,10 @@
       <c r="J145" s="15"/>
     </row>
     <row r="146" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="73">
+      <c r="A146" s="63">
         <v>12</v>
       </c>
-      <c r="B146" s="61" t="s">
+      <c r="B146" s="66" t="s">
         <v>23</v>
       </c>
       <c r="C146" s="21">
@@ -4007,7 +4013,7 @@
     </row>
     <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="62"/>
-      <c r="B158" s="63"/>
+      <c r="B158" s="64"/>
       <c r="C158" s="21">
         <v>43914</v>
       </c>
@@ -4027,10 +4033,10 @@
       <c r="J158" s="15"/>
     </row>
     <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="69">
+      <c r="A159" s="61">
         <v>13</v>
       </c>
-      <c r="B159" s="64" t="s">
+      <c r="B159" s="65" t="s">
         <v>24</v>
       </c>
       <c r="C159" s="3">
@@ -4278,8 +4284,8 @@
       <c r="J170" s="15"/>
     </row>
     <row r="171" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="63"/>
-      <c r="B171" s="63"/>
+      <c r="A171" s="64"/>
+      <c r="B171" s="64"/>
       <c r="C171" s="3">
         <v>43914</v>
       </c>
@@ -4299,10 +4305,10 @@
       <c r="J171" s="15"/>
     </row>
     <row r="172" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="73">
+      <c r="A172" s="63">
         <v>14</v>
       </c>
-      <c r="B172" s="61" t="s">
+      <c r="B172" s="66" t="s">
         <v>25</v>
       </c>
       <c r="C172" s="21">
@@ -4552,7 +4558,7 @@
     </row>
     <row r="184" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="62"/>
-      <c r="B184" s="63"/>
+      <c r="B184" s="64"/>
       <c r="C184" s="21">
         <v>43914</v>
       </c>
@@ -4583,8 +4589,8 @@
       <c r="I185" s="48"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="74"/>
-      <c r="B186" s="59"/>
+      <c r="A186" s="59"/>
+      <c r="B186" s="74"/>
       <c r="C186" s="42"/>
       <c r="D186" s="42"/>
       <c r="E186" s="46"/>
@@ -4737,8 +4743,8 @@
       <c r="I199" s="54"/>
     </row>
     <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="74"/>
-      <c r="B200" s="59"/>
+      <c r="A200" s="59"/>
+      <c r="B200" s="74"/>
       <c r="C200" s="42"/>
       <c r="D200" s="42"/>
       <c r="E200" s="46"/>
@@ -4891,8 +4897,8 @@
       <c r="I213" s="48"/>
     </row>
     <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="74"/>
-      <c r="B214" s="59"/>
+      <c r="A214" s="59"/>
+      <c r="B214" s="74"/>
       <c r="C214" s="42"/>
       <c r="D214" s="42"/>
       <c r="E214" s="46"/>
@@ -5045,8 +5051,8 @@
       <c r="I227" s="54"/>
     </row>
     <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="74"/>
-      <c r="B228" s="59"/>
+      <c r="A228" s="59"/>
+      <c r="B228" s="74"/>
       <c r="C228" s="42"/>
       <c r="D228" s="42"/>
       <c r="E228" s="46"/>
@@ -5199,8 +5205,8 @@
       <c r="I241" s="48"/>
     </row>
     <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="74"/>
-      <c r="B242" s="59"/>
+      <c r="A242" s="59"/>
+      <c r="B242" s="74"/>
       <c r="C242" s="42"/>
       <c r="D242" s="42"/>
       <c r="E242" s="46"/>
@@ -5353,8 +5359,8 @@
       <c r="I255" s="54"/>
     </row>
     <row r="256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="74"/>
-      <c r="B256" s="59"/>
+      <c r="A256" s="59"/>
+      <c r="B256" s="74"/>
       <c r="C256" s="42"/>
       <c r="D256" s="42"/>
       <c r="E256" s="46"/>
@@ -5507,8 +5513,8 @@
       <c r="I269" s="48"/>
     </row>
     <row r="270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="74"/>
-      <c r="B270" s="74"/>
+      <c r="A270" s="59"/>
+      <c r="B270" s="59"/>
       <c r="C270" s="42"/>
       <c r="D270" s="42"/>
       <c r="E270" s="46"/>
@@ -8006,42 +8012,10 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A186:A199"/>
-    <mergeCell ref="A200:A213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="A133:A145"/>
-    <mergeCell ref="A146:A158"/>
-    <mergeCell ref="A159:A171"/>
-    <mergeCell ref="A172:A184"/>
-    <mergeCell ref="A228:A241"/>
-    <mergeCell ref="A242:A255"/>
-    <mergeCell ref="A256:A269"/>
-    <mergeCell ref="A270:A283"/>
-    <mergeCell ref="B270:B283"/>
-    <mergeCell ref="A120:A132"/>
-    <mergeCell ref="A94:A106"/>
-    <mergeCell ref="B55:B67"/>
-    <mergeCell ref="B81:B93"/>
-    <mergeCell ref="B68:B80"/>
-    <mergeCell ref="B107:B119"/>
-    <mergeCell ref="B120:B132"/>
-    <mergeCell ref="B94:B106"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="A81:A93"/>
-    <mergeCell ref="A68:A80"/>
-    <mergeCell ref="A107:A119"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="A16:A28"/>
-    <mergeCell ref="B16:B28"/>
-    <mergeCell ref="A29:A41"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B186:B199"/>
+    <mergeCell ref="B200:B213"/>
+    <mergeCell ref="B214:B227"/>
+    <mergeCell ref="B228:B241"/>
     <mergeCell ref="B146:B158"/>
     <mergeCell ref="B159:B171"/>
     <mergeCell ref="B172:B184"/>
@@ -8051,12 +8025,44 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B42:B54"/>
     <mergeCell ref="B133:B145"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="A16:A28"/>
+    <mergeCell ref="B16:B28"/>
+    <mergeCell ref="A29:A41"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="A81:A93"/>
+    <mergeCell ref="A68:A80"/>
+    <mergeCell ref="A107:A119"/>
+    <mergeCell ref="A120:A132"/>
+    <mergeCell ref="A94:A106"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="B81:B93"/>
+    <mergeCell ref="B68:B80"/>
+    <mergeCell ref="B107:B119"/>
+    <mergeCell ref="B120:B132"/>
+    <mergeCell ref="B94:B106"/>
+    <mergeCell ref="A228:A241"/>
+    <mergeCell ref="A242:A255"/>
+    <mergeCell ref="A256:A269"/>
+    <mergeCell ref="A270:A283"/>
+    <mergeCell ref="B270:B283"/>
     <mergeCell ref="B242:B255"/>
     <mergeCell ref="B256:B269"/>
-    <mergeCell ref="B186:B199"/>
-    <mergeCell ref="B200:B213"/>
-    <mergeCell ref="B214:B227"/>
-    <mergeCell ref="B228:B241"/>
+    <mergeCell ref="A186:A199"/>
+    <mergeCell ref="A200:A213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="A133:A145"/>
+    <mergeCell ref="A146:A158"/>
+    <mergeCell ref="A159:A171"/>
+    <mergeCell ref="A172:A184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
